--- a/results.xlsx
+++ b/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7d7ca37c7b898647/CodePath/DL/sfnd_cam/SFND_featcher_matching/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7d7ca37c7b898647/CodePath/DL/submission/SFND_mid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="112" documentId="8_{F9C1E937-EDD0-9344-AE82-E59D1C47924E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{77B21D65-5D7B-9641-9C41-C2EB14EFA7F3}"/>
+  <xr:revisionPtr revIDLastSave="116" documentId="8_{F9C1E937-EDD0-9344-AE82-E59D1C47924E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6D05A1D5-6501-514A-AF09-0C9710455E1E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{C3F033CD-331C-8E4F-B352-CCE8EADC18E7}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" xr2:uid="{C3F033CD-331C-8E4F-B352-CCE8EADC18E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,76 +34,583 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t xml:space="preserve"> time 6.77874 sample 271.1 det FAST des BRISK</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> time 0.287101 sample 23.4 det HARRIS des HARRIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> time 0.449931 sample 23.4 det HARRIS des SIFT</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> time 6.23977 sample 271.1 det FAST des ORB</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> time 0.555132 sample 23.4 det HARRIS des FREAK</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> time 0.338545 sample 23.4 det HARRIS des ORB</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> time 2.26322 sample 23.4 det HARRIS des BRISK</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> time 4.80778 sample 271.1 det BRISK des FREAK</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> time 4.63993 sample 271.1 det BRISK des ORB</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> time 6.66637 sample 271.1 det BRISK des BRISK</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> time 6.47047 sample 271.1 det BRISK des BRISK</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> time 6.10876 sample 271.1 det BRISK des ORB</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> time 6.07071 sample 271.1 det BRISK des FREAK</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> time 2.44551 sample 111.2 det ORB des BRISK</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> time 0.6351 sample 111.2 det ORB des ORB</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> time 0.670157 sample 111.2 det ORB des FREAK</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> time 0.869369 sample 111.2 det ORB des SIFT</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> time 4.73191 sample 137.1 det SIFT des BRISK</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> time 2.52307 sample 137.1 det SIFT des FREAK</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> time 3.02673 sample 137.1 det SIFT des SIFT</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
   <si>
     <t>the final choice is  BRISK detector and FREAK descriptor</t>
+  </si>
+  <si>
+    <t>case, time: 0.146997 match: 11keypoint: 14 det: HARRIS des: BRISK</t>
+  </si>
+  <si>
+    <t>case, time: 0.146332 match: 9keypoint: 18 det: HARRIS des: BRISK</t>
+  </si>
+  <si>
+    <t>case, time: 0.137794 match: 10keypoint: 20 det: HARRIS des: BRISK</t>
+  </si>
+  <si>
+    <t>case, time: 0.138101 match: 11keypoint: 25 det: HARRIS des: BRISK</t>
+  </si>
+  <si>
+    <t>case, time: 0.154833 match: 16keypoint: 39 det: HARRIS des: BRISK</t>
+  </si>
+  <si>
+    <t>case, time: 0.141842 match: 14keypoint: 17 det: HARRIS des: BRISK</t>
+  </si>
+  <si>
+    <t>case, time: 0.141068 match: 12keypoint: 28 det: HARRIS des: BRISK</t>
+  </si>
+  <si>
+    <t>case, time: 0.135699 match: 20keypoint: 25 det: HARRIS des: BRISK</t>
+  </si>
+  <si>
+    <t>case, time: 0.156573 match: 16keypoint: 31 det: HARRIS des: BRISK</t>
+  </si>
+  <si>
+    <t>case, time: 0.0189265 match: 0keypoint: 17 det: HARRIS des: ORB</t>
+  </si>
+  <si>
+    <t>case, time: 0.0190454 match: 11keypoint: 14 det: HARRIS des: ORB</t>
+  </si>
+  <si>
+    <t>case, time: 0.0178098 match: 11keypoint: 18 det: HARRIS des: ORB</t>
+  </si>
+  <si>
+    <t>case, time: 0.0178426 match: 15keypoint: 20 det: HARRIS des: ORB</t>
+  </si>
+  <si>
+    <t>case, time: 0.0188802 match: 16keypoint: 25 det: HARRIS des: ORB</t>
+  </si>
+  <si>
+    <t>case, time: 0.0327482 match: 19keypoint: 39 det: HARRIS des: ORB</t>
+  </si>
+  <si>
+    <t>case, time: 0.0175209 match: 17keypoint: 17 det: HARRIS des: ORB</t>
+  </si>
+  <si>
+    <t>case, time: 0.0199326 match: 11keypoint: 28 det: HARRIS des: ORB</t>
+  </si>
+  <si>
+    <t>case, time: 0.0198888 match: 20keypoint: 25 det: HARRIS des: ORB</t>
+  </si>
+  <si>
+    <t>case, time: 0.0246757 match: 19keypoint: 31 det: HARRIS des: ORB</t>
+  </si>
+  <si>
+    <t>case, time: 0.43932 match: 0keypoint: 254 det: FAST des: BRISK</t>
+  </si>
+  <si>
+    <t>case, time: 0.508882 match: 138keypoint: 274 det: FAST des: BRISK</t>
+  </si>
+  <si>
+    <t>case, time: 0.459823 match: 143keypoint: 276 det: FAST des: BRISK</t>
+  </si>
+  <si>
+    <t>case, time: 0.462584 match: 136keypoint: 275 det: FAST des: BRISK</t>
+  </si>
+  <si>
+    <t>case, time: 0.448796 match: 141keypoint: 293 det: FAST des: BRISK</t>
+  </si>
+  <si>
+    <t>case, time: 0.446876 match: 144keypoint: 275 det: FAST des: BRISK</t>
+  </si>
+  <si>
+    <t>case, time: 0.444286 match: 157keypoint: 289 det: FAST des: BRISK</t>
+  </si>
+  <si>
+    <t>case, time: 0.450939 match: 136keypoint: 268 det: FAST des: BRISK</t>
+  </si>
+  <si>
+    <t>case, time: 0.444769 match: 149keypoint: 258 det: FAST des: BRISK</t>
+  </si>
+  <si>
+    <t>case, time: 0.448708 match: 158keypoint: 249 det: FAST des: BRISK</t>
+  </si>
+  <si>
+    <t>case, time: 0.326266 match: 1keypoint: 254 det: FAST des: ORB</t>
+  </si>
+  <si>
+    <t>case, time: 0.329722 match: 99keypoint: 274 det: FAST des: ORB</t>
+  </si>
+  <si>
+    <t>case, time: 0.331583 match: 100keypoint: 276 det: FAST des: ORB</t>
+  </si>
+  <si>
+    <t>case, time: 0.345569 match: 90keypoint: 275 det: FAST des: ORB</t>
+  </si>
+  <si>
+    <t>case, time: 0.333994 match: 95keypoint: 293 det: FAST des: ORB</t>
+  </si>
+  <si>
+    <t>case, time: 0.333158 match: 81keypoint: 275 det: FAST des: ORB</t>
+  </si>
+  <si>
+    <t>case, time: 0.335941 match: 115keypoint: 289 det: FAST des: ORB</t>
+  </si>
+  <si>
+    <t>case, time: 0.331258 match: 116keypoint: 268 det: FAST des: ORB</t>
+  </si>
+  <si>
+    <t>case, time: 0.332719 match: 111keypoint: 258 det: FAST des: ORB</t>
+  </si>
+  <si>
+    <t>case, time: 0.329894 match: 115keypoint: 249 det: FAST des: ORB</t>
+  </si>
+  <si>
+    <t>case, time: 0.350047 match: 0keypoint: 254 det: FAST des: SIFT</t>
+  </si>
+  <si>
+    <t>case, time: 0.372558 match: 177keypoint: 274 det: FAST des: SIFT</t>
+  </si>
+  <si>
+    <t>case, time: 0.372807 match: 188keypoint: 276 det: FAST des: SIFT</t>
+  </si>
+  <si>
+    <t>case, time: 0.394302 match: 174keypoint: 275 det: FAST des: SIFT</t>
+  </si>
+  <si>
+    <t>case, time: 0.388235 match: 179keypoint: 293 det: FAST des: SIFT</t>
+  </si>
+  <si>
+    <t>case, time: 0.372869 match: 169keypoint: 275 det: FAST des: SIFT</t>
+  </si>
+  <si>
+    <t>case, time: 0.375049 match: 191keypoint: 289 det: FAST des: SIFT</t>
+  </si>
+  <si>
+    <t>case, time: 0.372287 match: 194keypoint: 268 det: FAST des: SIFT</t>
+  </si>
+  <si>
+    <t>case, time: 0.370948 match: 176keypoint: 258 det: FAST des: SIFT</t>
+  </si>
+  <si>
+    <t>case, time: 0.373844 match: 181keypoint: 249 det: FAST des: SIFT</t>
+  </si>
+  <si>
+    <t>case, time: 0.462979 match: 0keypoint: 254 det: BRISK des: BRISK</t>
+  </si>
+  <si>
+    <t>case, time: 0.4529 match: 140keypoint: 274 det: BRISK des: BRISK</t>
+  </si>
+  <si>
+    <t>case, time: 0.442909 match: 143keypoint: 276 det: BRISK des: BRISK</t>
+  </si>
+  <si>
+    <t>case, time: 0.443193 match: 136keypoint: 275 det: BRISK des: BRISK</t>
+  </si>
+  <si>
+    <t>case, time: 0.4439 match: 137keypoint: 293 det: BRISK des: BRISK</t>
+  </si>
+  <si>
+    <t>case, time: 0.463246 match: 138keypoint: 275 det: BRISK des: BRISK</t>
+  </si>
+  <si>
+    <t>case, time: 0.45193 match: 156keypoint: 289 det: BRISK des: BRISK</t>
+  </si>
+  <si>
+    <t>case, time: 0.442333 match: 132keypoint: 268 det: BRISK des: BRISK</t>
+  </si>
+  <si>
+    <t>case, time: 0.447929 match: 146keypoint: 258 det: BRISK des: BRISK</t>
+  </si>
+  <si>
+    <t>case, time: 0.447398 match: 158keypoint: 249 det: BRISK des: BRISK</t>
+  </si>
+  <si>
+    <t>case, time: 0.326368 match: 1keypoint: 254 det: BRISK des: ORB</t>
+  </si>
+  <si>
+    <t>case, time: 0.335941 match: 95keypoint: 274 det: BRISK des: ORB</t>
+  </si>
+  <si>
+    <t>case, time: 0.330611 match: 104keypoint: 276 det: BRISK des: ORB</t>
+  </si>
+  <si>
+    <t>case, time: 0.333596 match: 90keypoint: 275 det: BRISK des: ORB</t>
+  </si>
+  <si>
+    <t>case, time: 0.329871 match: 95keypoint: 293 det: BRISK des: ORB</t>
+  </si>
+  <si>
+    <t>case, time: 0.32898 match: 91keypoint: 275 det: BRISK des: ORB</t>
+  </si>
+  <si>
+    <t>case, time: 0.330704 match: 118keypoint: 289 det: BRISK des: ORB</t>
+  </si>
+  <si>
+    <t>case, time: 0.328914 match: 112keypoint: 268 det: BRISK des: ORB</t>
+  </si>
+  <si>
+    <t>case, time: 0.330057 match: 114keypoint: 258 det: BRISK des: ORB</t>
+  </si>
+  <si>
+    <t>case, time: 0.329917 match: 117keypoint: 249 det: BRISK des: ORB</t>
+  </si>
+  <si>
+    <t>case, time: 0.345464 match: 0keypoint: 254 det: BRISK des: FREAK</t>
+  </si>
+  <si>
+    <t>case, time: 0.34628 match: 106keypoint: 274 det: BRISK des: FREAK</t>
+  </si>
+  <si>
+    <t>case, time: 0.352152 match: 122keypoint: 276 det: BRISK des: FREAK</t>
+  </si>
+  <si>
+    <t>case, time: 0.34832 match: 111keypoint: 275 det: BRISK des: FREAK</t>
+  </si>
+  <si>
+    <t>case, time: 0.348906 match: 114keypoint: 293 det: BRISK des: FREAK</t>
+  </si>
+  <si>
+    <t>case, time: 0.35438 match: 105keypoint: 275 det: BRISK des: FREAK</t>
+  </si>
+  <si>
+    <t>case, time: 0.347366 match: 130keypoint: 289 det: BRISK des: FREAK</t>
+  </si>
+  <si>
+    <t>case, time: 0.362978 match: 137keypoint: 268 det: BRISK des: FREAK</t>
+  </si>
+  <si>
+    <t>case, time: 0.347122 match: 129keypoint: 258 det: BRISK des: FREAK</t>
+  </si>
+  <si>
+    <t>case, time: 0.34526 match: 130keypoint: 249 det: BRISK des: FREAK</t>
+  </si>
+  <si>
+    <t>case, time: 0.155249 match: 0keypoint: 87 det: ORB des: BRISK</t>
+  </si>
+  <si>
+    <t>case, time: 0.142837 match: 59keypoint: 101 det: ORB des: BRISK</t>
+  </si>
+  <si>
+    <t>case, time: 0.143302 match: 64keypoint: 105 det: ORB des: BRISK</t>
+  </si>
+  <si>
+    <t>case, time: 0.142063 match: 64keypoint: 110 det: ORB des: BRISK</t>
+  </si>
+  <si>
+    <t>case, time: 0.145172 match: 75keypoint: 106 det: ORB des: BRISK</t>
+  </si>
+  <si>
+    <t>case, time: 0.144445 match: 71keypoint: 121 det: ORB des: BRISK</t>
+  </si>
+  <si>
+    <t>case, time: 0.144842 match: 81keypoint: 128 det: ORB des: BRISK</t>
+  </si>
+  <si>
+    <t>case, time: 0.145841 match: 83keypoint: 120 det: ORB des: BRISK</t>
+  </si>
+  <si>
+    <t>case, time: 0.146494 match: 70keypoint: 117 det: ORB des: BRISK</t>
+  </si>
+  <si>
+    <t>case, time: 0.142831 match: 68keypoint: 117 det: ORB des: BRISK</t>
+  </si>
+  <si>
+    <t>case, time: 0.0304027 match: 0keypoint: 87 det: ORB des: ORB</t>
+  </si>
+  <si>
+    <t>case, time: 0.0326369 match: 37keypoint: 101 det: ORB des: ORB</t>
+  </si>
+  <si>
+    <t>case, time: 0.0337513 match: 52keypoint: 105 det: ORB des: ORB</t>
+  </si>
+  <si>
+    <t>case, time: 0.034371 match: 48keypoint: 110 det: ORB des: ORB</t>
+  </si>
+  <si>
+    <t>case, time: 0.0345442 match: 50keypoint: 106 det: ORB des: ORB</t>
+  </si>
+  <si>
+    <t>case, time: 0.033992 match: 53keypoint: 121 det: ORB des: ORB</t>
+  </si>
+  <si>
+    <t>case, time: 0.0345802 match: 63keypoint: 128 det: ORB des: ORB</t>
+  </si>
+  <si>
+    <t>case, time: 0.0351598 match: 69keypoint: 120 det: ORB des: ORB</t>
+  </si>
+  <si>
+    <t>case, time: 0.0344535 match: 63keypoint: 117 det: ORB des: ORB</t>
+  </si>
+  <si>
+    <t>case, time: 0.0346474 match: 68keypoint: 117 det: ORB des: ORB</t>
+  </si>
+  <si>
+    <t>case, time: 0.0413305 match: 0keypoint: 87 det: ORB des: FREAK</t>
+  </si>
+  <si>
+    <t>case, time: 0.0427176 match: 34keypoint: 101 det: ORB des: FREAK</t>
+  </si>
+  <si>
+    <t>case, time: 0.0416623 match: 32keypoint: 105 det: ORB des: FREAK</t>
+  </si>
+  <si>
+    <t>case, time: 0.0426444 match: 38keypoint: 110 det: ORB des: FREAK</t>
+  </si>
+  <si>
+    <t>case, time: 0.0432573 match: 39keypoint: 106 det: ORB des: FREAK</t>
+  </si>
+  <si>
+    <t>case, time: 0.0421146 match: 32keypoint: 121 det: ORB des: FREAK</t>
+  </si>
+  <si>
+    <t>case, time: 0.0447586 match: 39keypoint: 128 det: ORB des: FREAK</t>
+  </si>
+  <si>
+    <t>case, time: 0.0428965 match: 42keypoint: 120 det: ORB des: FREAK</t>
+  </si>
+  <si>
+    <t>case, time: 0.0436321 match: 37keypoint: 117 det: ORB des: FREAK</t>
+  </si>
+  <si>
+    <t>case, time: 0.0435732 match: 41keypoint: 117 det: ORB des: FREAK</t>
+  </si>
+  <si>
+    <t>case, time: 0.0530475 match: 0keypoint: 87 det: ORB des: SIFT</t>
+  </si>
+  <si>
+    <t>case, time: 0.0489549 match: 63keypoint: 101 det: ORB des: SIFT</t>
+  </si>
+  <si>
+    <t>case, time: 0.0507313 match: 78keypoint: 105 det: ORB des: SIFT</t>
+  </si>
+  <si>
+    <t>case, time: 0.0505262 match: 80keypoint: 110 det: ORB des: SIFT</t>
+  </si>
+  <si>
+    <t>case, time: 0.0489698 match: 79keypoint: 106 det: ORB des: SIFT</t>
+  </si>
+  <si>
+    <t>case, time: 0.0514872 match: 79keypoint: 121 det: ORB des: SIFT</t>
+  </si>
+  <si>
+    <t>case, time: 0.0541725 match: 92keypoint: 128 det: ORB des: SIFT</t>
+  </si>
+  <si>
+    <t>case, time: 0.0542336 match: 89keypoint: 120 det: ORB des: SIFT</t>
+  </si>
+  <si>
+    <t>case, time: 0.0542563 match: 91keypoint: 117 det: ORB des: SIFT</t>
+  </si>
+  <si>
+    <t>case, time: 0.0516464 match: 88keypoint: 117 det: ORB des: SIFT</t>
+  </si>
+  <si>
+    <t>case, time: 0.279742 match: 0keypoint: 137 det: SIFT des: BRISK</t>
+  </si>
+  <si>
+    <t>case, time: 0.270331 match: 56keypoint: 131 det: SIFT des: BRISK</t>
+  </si>
+  <si>
+    <t>case, time: 0.267913 match: 61keypoint: 121 det: SIFT des: BRISK</t>
+  </si>
+  <si>
+    <t>case, time: 0.27551 match: 56keypoint: 135 det: SIFT des: BRISK</t>
+  </si>
+  <si>
+    <t>case, time: 0.268482 match: 60keypoint: 134 det: SIFT des: BRISK</t>
+  </si>
+  <si>
+    <t>case, time: 0.266728 match: 54keypoint: 139 det: SIFT des: BRISK</t>
+  </si>
+  <si>
+    <t>case, time: 0.270474 match: 53keypoint: 136 det: SIFT des: BRISK</t>
+  </si>
+  <si>
+    <t>case, time: 0.269142 match: 55keypoint: 147 det: SIFT des: BRISK</t>
+  </si>
+  <si>
+    <t>case, time: 0.26754 match: 63keypoint: 156 det: SIFT des: BRISK</t>
+  </si>
+  <si>
+    <t>case, time: 0.270143 match: 74keypoint: 135 det: SIFT des: BRISK</t>
+  </si>
+  <si>
+    <t>case, time: 0.156721 match: 0keypoint: 137 det: SIFT des: FREAK</t>
+  </si>
+  <si>
+    <t>case, time: 0.154541 match: 57keypoint: 131 det: SIFT des: FREAK</t>
+  </si>
+  <si>
+    <t>case, time: 0.150327 match: 61keypoint: 121 det: SIFT des: FREAK</t>
+  </si>
+  <si>
+    <t>case, time: 0.148388 match: 54keypoint: 135 det: SIFT des: FREAK</t>
+  </si>
+  <si>
+    <t>case, time: 0.151249 match: 59keypoint: 134 det: SIFT des: FREAK</t>
+  </si>
+  <si>
+    <t>case, time: 0.150609 match: 51keypoint: 139 det: SIFT des: FREAK</t>
+  </si>
+  <si>
+    <t>case, time: 0.149256 match: 52keypoint: 136 det: SIFT des: FREAK</t>
+  </si>
+  <si>
+    <t>case, time: 0.150875 match: 48keypoint: 147 det: SIFT des: FREAK</t>
+  </si>
+  <si>
+    <t>case, time: 0.15011 match: 53keypoint: 156 det: SIFT des: FREAK</t>
+  </si>
+  <si>
+    <t>case, time: 0.15105 match: 65keypoint: 135 det: SIFT des: FREAK</t>
+  </si>
+  <si>
+    <t>case, time: 0.171855 match: 0keypoint: 137 det: SIFT des: SIFT</t>
+  </si>
+  <si>
+    <t>case, time: 0.186489 match: 81keypoint: 131 det: SIFT des: SIFT</t>
+  </si>
+  <si>
+    <t>case, time: 0.175578 match: 79keypoint: 121 det: SIFT des: SIFT</t>
+  </si>
+  <si>
+    <t>case, time: 0.171732 match: 83keypoint: 135 det: SIFT des: SIFT</t>
+  </si>
+  <si>
+    <t>case, time: 0.174356 match: 94keypoint: 134 det: SIFT des: SIFT</t>
+  </si>
+  <si>
+    <t>case, time: 0.171619 match: 91keypoint: 139 det: SIFT des: SIFT</t>
+  </si>
+  <si>
+    <t>case, time: 0.174099 match: 83keypoint: 136 det: SIFT des: SIFT</t>
+  </si>
+  <si>
+    <t>case, time: 0.172836 match: 82keypoint: 147 det: SIFT des: SIFT</t>
+  </si>
+  <si>
+    <t>case, time: 0.175101 match: 101keypoint: 156 det: SIFT des: SIFT</t>
+  </si>
+  <si>
+    <t>case, time: 0.17698 match: 101keypoint: 135 det: SIFT des: SIFT</t>
+  </si>
+  <si>
+    <t>case, time: 0.161401 match: 1keypoint: 162 det: AKAZE des: AKAZE</t>
+  </si>
+  <si>
+    <t>case, time: 0.156867 match: 124keypoint: 157 det: AKAZE des: AKAZE</t>
+  </si>
+  <si>
+    <t>case, time: 0.159352 match: 129keypoint: 159 det: AKAZE des: AKAZE</t>
+  </si>
+  <si>
+    <t>case, time: 0.157777 match: 124keypoint: 154 det: AKAZE des: AKAZE</t>
+  </si>
+  <si>
+    <t>case, time: 0.1548 match: 115keypoint: 162 det: AKAZE des: AKAZE</t>
+  </si>
+  <si>
+    <t>case, time: 0.15679 match: 120keypoint: 163 det: AKAZE des: AKAZE</t>
+  </si>
+  <si>
+    <t>case, time: 0.155422 match: 129keypoint: 173 det: AKAZE des: AKAZE</t>
+  </si>
+  <si>
+    <t>case, time: 0.155509 match: 138keypoint: 175 det: AKAZE des: AKAZE</t>
+  </si>
+  <si>
+    <t>case, time: 0.156314 match: 138keypoint: 175 det: AKAZE des: AKAZE</t>
+  </si>
+  <si>
+    <t>case, time: 0.15783 match: 141keypoint: 175 det: AKAZE des: AKAZE</t>
+  </si>
+  <si>
+    <t>case, time: 0.156443 match: 52keypoint: 162 det: AKAZE des: AKAZE</t>
+  </si>
+  <si>
+    <t>case, time: 0.15795 match: 126keypoint: 157 det: AKAZE des: AKAZE</t>
+  </si>
+  <si>
+    <t>case, time: 0.158215 match: 128keypoint: 159 det: AKAZE des: AKAZE</t>
+  </si>
+  <si>
+    <t>case, time: 0.156671 match: 124keypoint: 154 det: AKAZE des: AKAZE</t>
+  </si>
+  <si>
+    <t>case, time: 0.155943 match: 116keypoint: 162 det: AKAZE des: AKAZE</t>
+  </si>
+  <si>
+    <t>case, time: 0.155283 match: 121keypoint: 163 det: AKAZE des: AKAZE</t>
+  </si>
+  <si>
+    <t>case, time: 0.153716 match: 131keypoint: 173 det: AKAZE des: AKAZE</t>
+  </si>
+  <si>
+    <t>case, time: 0.154702 match: 139keypoint: 175 det: AKAZE des: AKAZE</t>
+  </si>
+  <si>
+    <t>case, time: 0.15575 match: 138keypoint: 175 det: AKAZE des: AKAZE</t>
+  </si>
+  <si>
+    <t>case, time: 0.155932 match: 141keypoint: 175 det: AKAZE des: AKAZE</t>
+  </si>
+  <si>
+    <t>case, time: 0.152997 match: 50keypoint: 162 det: AKAZE des: AKAZE</t>
+  </si>
+  <si>
+    <t>case, time: 0.15594 match: 126keypoint: 157 det: AKAZE des: AKAZE</t>
+  </si>
+  <si>
+    <t>case, time: 0.155488 match: 128keypoint: 159 det: AKAZE des: AKAZE</t>
+  </si>
+  <si>
+    <t>case, time: 0.155863 match: 124keypoint: 154 det: AKAZE des: AKAZE</t>
+  </si>
+  <si>
+    <t>case, time: 0.15593 match: 116keypoint: 162 det: AKAZE des: AKAZE</t>
+  </si>
+  <si>
+    <t>case, time: 0.15443 match: 121keypoint: 163 det: AKAZE des: AKAZE</t>
+  </si>
+  <si>
+    <t>case, time: 0.154452 match: 132keypoint: 173 det: AKAZE des: AKAZE</t>
+  </si>
+  <si>
+    <t>case, time: 0.155846 match: 137keypoint: 175 det: AKAZE des: AKAZE</t>
+  </si>
+  <si>
+    <t>case, time: 0.155299 match: 139keypoint: 175 det: AKAZE des: AKAZE</t>
+  </si>
+  <si>
+    <t>case, time: 0.155804 match: 142keypoint: 175 det: AKAZE des: AKAZE</t>
+  </si>
+  <si>
+    <t>case, time: 0.154761 match: 52keypoint: 162 det: AKAZE des: AKAZE</t>
+  </si>
+  <si>
+    <t>case, time: 0.1595 match: 126keypoint: 157 det: AKAZE des: AKAZE</t>
+  </si>
+  <si>
+    <t>case, time: 0.157554 match: 126keypoint: 159 det: AKAZE des: AKAZE</t>
+  </si>
+  <si>
+    <t>case, time: 0.156455 match: 126keypoint: 154 det: AKAZE des: AKAZE</t>
+  </si>
+  <si>
+    <t>case, time: 0.157438 match: 117keypoint: 162 det: AKAZE des: AKAZE</t>
+  </si>
+  <si>
+    <t>case, time: 0.158501 match: 121keypoint: 163 det: AKAZE des: AKAZE</t>
+  </si>
+  <si>
+    <t>case, time: 0.158463 match: 131keypoint: 173 det: AKAZE des: AKAZE</t>
+  </si>
+  <si>
+    <t>case, time: 0.159749 match: 138keypoint: 175 det: AKAZE des: AKAZE</t>
+  </si>
+  <si>
+    <t>case, time: 0.15821 match: 138keypoint: 175 det: AKAZE des: AKAZE</t>
+  </si>
+  <si>
+    <t>case, time: 0.15643 match: 141keypoint: 175 det: AKAZE des: AKAZ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -121,6 +628,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -144,10 +657,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,10 +976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F987665-93F2-3C48-8990-A2B0C2D11CDB}">
-  <dimension ref="A2:A26"/>
+  <dimension ref="A1:A192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -475,113 +989,958 @@
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>19</v>
       </c>
     </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>20</v>
+      <c r="A24" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
+      <c r="A26" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192" s="3" t="s">
+        <v>189</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
